--- a/Planung.xlsx
+++ b/Planung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Jonas</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Dokumentation</t>
   </si>
   <si>
-    <t>Testfäll</t>
-  </si>
-  <si>
     <t>Usecase</t>
   </si>
   <si>
@@ -71,12 +68,18 @@
   </si>
   <si>
     <t>PufferZeit</t>
+  </si>
+  <si>
+    <t>Testfälle</t>
+  </si>
+  <si>
+    <t>Testprotokoll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,7 +96,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +142,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -163,11 +172,35 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -258,6 +291,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -293,6 +343,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.77734375" customWidth="1"/>
   </cols>
@@ -514,10 +581,10 @@
       <c r="C2" s="4"/>
       <c r="D2" s="1"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -527,10 +594,10 @@
       <c r="C3" s="4"/>
       <c r="D3" s="1"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -540,10 +607,10 @@
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -551,53 +618,72 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D15" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D14" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D15" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
